--- a/Data/Transitions/19591965Translation.xlsx
+++ b/Data/Transitions/19591965Translation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="624">
   <si>
     <t>id</t>
   </si>
@@ -469,7 +469,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.6801219689269639}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 0.9888238424693986}</t>
@@ -670,7 +670,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.31987803107303614}</t>
+    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -1727,9 +1727,6 @@
   </si>
   <si>
     <t>{237.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -3899,7 +3896,7 @@
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>571</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3910,7 +3907,7 @@
         <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3921,7 +3918,7 @@
         <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -4108,7 +4105,7 @@
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4174,7 +4171,7 @@
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4317,7 +4314,7 @@
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4493,7 +4490,7 @@
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4636,7 +4633,7 @@
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>571</v>
+        <v>218</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4691,7 +4688,7 @@
         <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4856,7 +4853,7 @@
         <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4911,7 +4908,7 @@
         <v>243</v>
       </c>
       <c r="C242" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -5010,7 +5007,7 @@
         <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5142,7 +5139,7 @@
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5153,7 +5150,7 @@
         <v>265</v>
       </c>
       <c r="C264" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5164,7 +5161,7 @@
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5373,7 +5370,7 @@
         <v>285</v>
       </c>
       <c r="C284" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5461,7 +5458,7 @@
         <v>293</v>
       </c>
       <c r="C292" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5472,7 +5469,7 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5637,7 +5634,7 @@
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5670,7 +5667,7 @@
         <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5692,7 +5689,7 @@
         <v>314</v>
       </c>
       <c r="C313" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -5736,7 +5733,7 @@
         <v>318</v>
       </c>
       <c r="C317" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5758,7 +5755,7 @@
         <v>320</v>
       </c>
       <c r="C319" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5802,7 +5799,7 @@
         <v>324</v>
       </c>
       <c r="C323" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5857,7 +5854,7 @@
         <v>329</v>
       </c>
       <c r="C328" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -6011,7 +6008,7 @@
         <v>343</v>
       </c>
       <c r="C342" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6022,7 +6019,7 @@
         <v>344</v>
       </c>
       <c r="C343" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -6066,7 +6063,7 @@
         <v>348</v>
       </c>
       <c r="C347" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6088,7 +6085,7 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6099,7 +6096,7 @@
         <v>351</v>
       </c>
       <c r="C350" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6198,7 +6195,7 @@
         <v>360</v>
       </c>
       <c r="C359" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -6308,7 +6305,7 @@
         <v>370</v>
       </c>
       <c r="C369" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6418,7 +6415,7 @@
         <v>380</v>
       </c>
       <c r="C379" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -6429,7 +6426,7 @@
         <v>381</v>
       </c>
       <c r="C380" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -6440,7 +6437,7 @@
         <v>382</v>
       </c>
       <c r="C381" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -6594,7 +6591,7 @@
         <v>396</v>
       </c>
       <c r="C395" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -6605,7 +6602,7 @@
         <v>397</v>
       </c>
       <c r="C396" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -6825,7 +6822,7 @@
         <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -7133,7 +7130,7 @@
         <v>445</v>
       </c>
       <c r="C444" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -7188,7 +7185,7 @@
         <v>450</v>
       </c>
       <c r="C449" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -7210,7 +7207,7 @@
         <v>452</v>
       </c>
       <c r="C451" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -7232,7 +7229,7 @@
         <v>454</v>
       </c>
       <c r="C453" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -7265,7 +7262,7 @@
         <v>457</v>
       </c>
       <c r="C456" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -7342,7 +7339,7 @@
         <v>464</v>
       </c>
       <c r="C463" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -7562,7 +7559,7 @@
         <v>484</v>
       </c>
       <c r="C483" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -7606,7 +7603,7 @@
         <v>488</v>
       </c>
       <c r="C487" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -7639,7 +7636,7 @@
         <v>491</v>
       </c>
       <c r="C490" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -7892,7 +7889,7 @@
         <v>514</v>
       </c>
       <c r="C513" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -7958,7 +7955,7 @@
         <v>520</v>
       </c>
       <c r="C519" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -8046,7 +8043,7 @@
         <v>528</v>
       </c>
       <c r="C527" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -8068,7 +8065,7 @@
         <v>530</v>
       </c>
       <c r="C529" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -8090,7 +8087,7 @@
         <v>532</v>
       </c>
       <c r="C531" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -8101,7 +8098,7 @@
         <v>533</v>
       </c>
       <c r="C532" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -8123,7 +8120,7 @@
         <v>535</v>
       </c>
       <c r="C534" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -8145,7 +8142,7 @@
         <v>537</v>
       </c>
       <c r="C536" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="537" spans="1:3">
